--- a/Timeliste Lego.xlsx
+++ b/Timeliste Lego.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuis-my.sharepoint.com/personal/273399_uis_no/Documents/VÅR 2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bc637c17c9dbe69/Documents/ELE130/Lego/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="10_ncr:40000_{34BBE727-11AA-4804-B484-DCF3E61F940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA348A3-6C9A-4EE5-BE44-D406924CF31E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="10_ncr:40000_{34BBE727-11AA-4804-B484-DCF3E61F940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73136DB0-46FA-422C-A9CC-208CC0DC38E6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,6 +511,9 @@
       <c r="A6" s="1">
         <v>13</v>
       </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -546,7 +549,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>

--- a/Timeliste Lego.xlsx
+++ b/Timeliste Lego.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bc637c17c9dbe69/Documents/ELE130/Lego/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="10_ncr:40000_{34BBE727-11AA-4804-B484-DCF3E61F940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73136DB0-46FA-422C-A9CC-208CC0DC38E6}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="10_ncr:40000_{34BBE727-11AA-4804-B484-DCF3E61F940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49F1DD47-AF0C-4C63-AD94-E218FED0C1DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +420,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,118 +443,139 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>2.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>18</v>
       </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>14</v>
       </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>15</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>16</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>17</v>
       </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <f>SUM(B2:B10)</f>
         <v>38</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f t="shared" ref="C11:E11" si="0">SUM(C2:C10)</f>
         <v>32.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="E11">
+        <v>63.5</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>

--- a/Timeliste Lego.xlsx
+++ b/Timeliste Lego.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bc637c17c9dbe69/Documents/ELE130/Lego/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="10_ncr:40000_{34BBE727-11AA-4804-B484-DCF3E61F940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49F1DD47-AF0C-4C63-AD94-E218FED0C1DE}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="10_ncr:40000_{34BBE727-11AA-4804-B484-DCF3E61F940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3458CA8-0FED-408B-8BA9-458E77596530}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,6 +118,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,7 +424,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +541,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -547,7 +551,9 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -573,7 +579,7 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>63.5</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>

--- a/Timeliste Lego.xlsx
+++ b/Timeliste Lego.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bc637c17c9dbe69/Documents/ELE130/Lego/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="10_ncr:40000_{34BBE727-11AA-4804-B484-DCF3E61F940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3458CA8-0FED-408B-8BA9-458E77596530}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="10_ncr:40000_{34BBE727-11AA-4804-B484-DCF3E61F940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59587AD-2AE0-432A-BBFD-14171438CBCF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -552,7 +552,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -562,7 +562,9 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>60</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -579,7 +581,7 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
